--- a/VGMGUI/Documentation/FR/KS.xlsx
+++ b/VGMGUI/Documentation/FR/KS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,54 +24,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t>Ajouter des fichiers dans la liste</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>Espace</t>
+  </si>
+  <si>
+    <t>Lire / pause</t>
+  </si>
+  <si>
+    <t>PageUp</t>
+  </si>
+  <si>
+    <t>Précédent</t>
+  </si>
+  <si>
+    <t>PageDown</t>
+  </si>
+  <si>
+    <t>Suivant</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Maj+S</t>
+  </si>
+  <si>
+    <t>Supprimer les fichiers temporaires et libérer de la mémoire (mais continuer la lecture)</t>
+  </si>
+  <si>
+    <t>Gauche</t>
+  </si>
+  <si>
+    <t>Reculer de quelques secondes (5%)</t>
+  </si>
+  <si>
+    <t>Droite</t>
+  </si>
+  <si>
+    <t>Avancer de quelques secondes (5%)</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Ctrl+D</t>
+  </si>
+  <si>
+    <t>Télécharger la dernière version de VGMStream</t>
+  </si>
+  <si>
+    <t>Ctrl+Maj+D</t>
+  </si>
+  <si>
+    <t>Télécharger la dernière version de FFmpeg</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+D</t>
+  </si>
+  <si>
+    <t>Télécharger la dernière version stable de VLC</t>
+  </si>
+  <si>
+    <t>Ctrl+P</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>Ctrl+Maj+B</t>
+  </si>
+  <si>
+    <t>Afficher / masquer la barre de statut</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>Simule un clic sur le bouton de contrôle de la conversion</t>
-  </si>
-  <si>
-    <t>Espace</t>
-  </si>
-  <si>
-    <t>Lire / pause</t>
-  </si>
-  <si>
-    <t>PageUp</t>
-  </si>
-  <si>
-    <t>PageDown</t>
-  </si>
-  <si>
-    <t>Précédent</t>
-  </si>
-  <si>
-    <t>Suivant</t>
-  </si>
-  <si>
-    <t>Lecture</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Ctrl+P</t>
-  </si>
-  <si>
-    <t>Ctrl+D</t>
-  </si>
-  <si>
-    <t>Télécharger la dernière version de VGMStream</t>
-  </si>
-  <si>
-    <t>Paramètres</t>
+    <t>Simule un clic sur le bouton de contrôle de la conversion (démarrer / pause / annuler)</t>
   </si>
   <si>
     <t>Liste</t>
@@ -80,87 +116,94 @@
     <t>+</t>
   </si>
   <si>
+    <t>Monter les fichiers sélectionnés d'une place dans la liste</t>
+  </si>
+  <si>
     <t>Ctrl++</t>
   </si>
   <si>
+    <t>Monter les fichiers sélectionnés de n places dans la liste (entrer n)</t>
+  </si>
+  <si>
     <t>Maj++</t>
   </si>
   <si>
+    <t>Monter les fichiers sélectionnés à la première place de la liste</t>
+  </si>
+  <si>
     <t>Alt++</t>
   </si>
   <si>
+    <t>Rassembler les fichiers sélectionnés vers le haut</t>
+  </si>
+  <si>
     <t>Ctrl+Alt++</t>
   </si>
   <si>
+    <t>Rassembler les fichiers sélectionnés vers le haut et les monter de n places dans la liste (entrer n)</t>
+  </si>
+  <si>
     <t>Maj+Alt++</t>
   </si>
   <si>
+    <t>Rassembler les fichiers sélectionnés vers le haut et les monter à la première place de la liste</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>Descendre les fichiers sélectionnés d'une place dans la liste</t>
+  </si>
+  <si>
     <t>Ctrl+-</t>
   </si>
   <si>
+    <t>Descendre les fichiers sélectionnés de n places dans la liste (entrer n)</t>
+  </si>
+  <si>
     <t>Maj+-</t>
   </si>
   <si>
+    <t>Descendre les fichiers sélectionnés à la dernière place de la liste</t>
+  </si>
+  <si>
     <t>Alt+-</t>
   </si>
   <si>
+    <t>Rassembler les fichiers sélectionnés vers le bas</t>
+  </si>
+  <si>
     <t>Ctrl+Alt+-</t>
   </si>
   <si>
+    <t>Rassembler les fichiers sélectionnés vers le bas et les descendre de n places dans la liste (entrer n)</t>
+  </si>
+  <si>
     <t>Maj+Alt+-</t>
   </si>
   <si>
-    <t>Application</t>
+    <t>Rassembler les fichiers sélectionnés vers le bas et les descendre à la dernière place de la liste</t>
   </si>
   <si>
     <t>Suppr</t>
   </si>
   <si>
+    <t>Supprimer les fichiers sélectionnés</t>
+  </si>
+  <si>
     <t>Maj+Suppr</t>
   </si>
   <si>
+    <t>Supprimer tous les fichiers</t>
+  </si>
+  <si>
     <t>Ctrl+Suppr</t>
   </si>
   <si>
-    <t>Supprimer les fichiers sélectionnés</t>
-  </si>
-  <si>
-    <t>Supprimer tous les fichiers</t>
-  </si>
-  <si>
     <t>Supprimer les fichiers invalides (en rouge)</t>
   </si>
   <si>
-    <t>Gauche</t>
-  </si>
-  <si>
-    <t>Droite</t>
-  </si>
-  <si>
-    <t>Avancer de quelques secondes (5%)</t>
-  </si>
-  <si>
-    <t>Reculer de quelques secondes (5%)</t>
-  </si>
-  <si>
-    <t>Ctrl+F</t>
-  </si>
-  <si>
-    <t>Rechercher des fichiers dans la liste</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Inser</t>
     </r>
     <r>
@@ -176,15 +219,10 @@
     </r>
   </si>
   <si>
+    <t>Ajouter des fichiers dans la liste</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Ctrl+Inser</t>
     </r>
     <r>
@@ -200,85 +238,23 @@
     </r>
   </si>
   <si>
-    <t>Monter les fichiers sélectionnés  d'une place dans la liste</t>
-  </si>
-  <si>
-    <t>Monter les fichiers sélectionnés  de n places dans la liste (entrer n)</t>
-  </si>
-  <si>
-    <t>Monter les fichiers sélectionnés  à la première place de la liste</t>
-  </si>
-  <si>
-    <t>Rassembler les fichiers sélectionnés  vers le haut</t>
-  </si>
-  <si>
-    <t>Rassembler les fichiers sélectionnés  vers le haut et les monter de n places dans la liste (entrer n)</t>
-  </si>
-  <si>
-    <t>Rassembler les fichiers sélectionnés  vers le haut et les monter à la première place de la liste</t>
-  </si>
-  <si>
-    <t>Descendre les fichiers sélectionnés  d'une place dans la liste</t>
-  </si>
-  <si>
-    <t>Descendre les fichiers sélectionnés  de n places dans la liste (entrer n)</t>
-  </si>
-  <si>
-    <t>Descendre les fichiers sélectionnés  à la dernière place de la liste</t>
-  </si>
-  <si>
-    <t>Rassembler les fichiers sélectionnés  vers le bas</t>
-  </si>
-  <si>
-    <t>Rassembler les fichiers sélectionnés  vers le bas et les descendre de n places dans la liste (entrer n)</t>
-  </si>
-  <si>
-    <t>Rassembler les fichiers sélectionnés  vers le bas et les descendre à la dernière place de la liste</t>
-  </si>
-  <si>
     <t>Ajouter des dossiers dans la liste (prise en charge des sous-dossiers)</t>
+  </si>
+  <si>
+    <t>Ctrl+F</t>
+  </si>
+  <si>
+    <t>Rechercher des fichiers dans la liste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,8 +268,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2F75B5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC65911"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF548235"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -317,147 +317,173 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF262626"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF262626"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF262626"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF262626"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF262626"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF262626"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF262626"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF262626"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF262626"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF262626"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF262626"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF262626"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF262626"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF262626"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF262626"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF262626"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,40 +491,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,12 +556,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF262626"/>
-      <color rgb="FF16A085"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -820,270 +864,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B31" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="8" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>41</v>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
